--- a/src/QueryTest/Errors.xlsx
+++ b/src/QueryTest/Errors.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arsalan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arsalan\Desktop\PI\PersonnelInfo\src\QueryTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC0960D7-934F-4176-ABE1-0B8B62E7C68A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC4C19F-4D79-4067-AB4A-9B1166D7D144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{BE41FB7B-AB1A-4C6B-8726-61460C5B0D35}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11385" xr2:uid="{BE41FB7B-AB1A-4C6B-8726-61460C5B0D35}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
-  <si>
-    <t>Required</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="57">
   <si>
     <t>StringLength</t>
   </si>
@@ -62,64 +59,154 @@
     <t>NationalId</t>
   </si>
   <si>
-    <t>National Id is required.</t>
-  </si>
-  <si>
-    <t>کد ملی الزامی است.</t>
-  </si>
-  <si>
     <t>LastName</t>
   </si>
   <si>
-    <t>First name is required.</t>
-  </si>
-  <si>
-    <t>نام الزامی است.</t>
-  </si>
-  <si>
-    <t>First name must be between 1 and 21 characters long.</t>
-  </si>
-  <si>
-    <t>نام باید بین 1 و 21 کاراکتر باشد.</t>
-  </si>
-  <si>
-    <t>Last name is required.</t>
-  </si>
-  <si>
-    <t>نام خانوادگی الزامی است.</t>
-  </si>
-  <si>
-    <t>Last name must be between 1 and 21 characters long.</t>
-  </si>
-  <si>
-    <t>نام خانوادگی باید بین 1 و 21 کاراکتر باشد.</t>
-  </si>
-  <si>
-    <t>National Id must be exactly 10 characters long.</t>
-  </si>
-  <si>
-    <t>کد ملی باید دقیقاً 10 کاراکتر باشد.</t>
-  </si>
-  <si>
-    <t>Invalid national id.</t>
-  </si>
-  <si>
-    <t>کد ملی نامعتبر است.</t>
-  </si>
-  <si>
     <t>ContactNumber</t>
   </si>
   <si>
-    <t>Contact number is required.</t>
-  </si>
-  <si>
-    <t>شماره تماس الزامی است.</t>
-  </si>
-  <si>
-    <t>Contact number must be exactly 11 characters long.</t>
-  </si>
-  <si>
-    <t>شماره تماس باید دقیقاً 11 کاراکتر باشد.</t>
+    <t>FatherName</t>
+  </si>
+  <si>
+    <t>ChildrenCount</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>The number of children cannot be negative.</t>
+  </si>
+  <si>
+    <t>تعداد فرزندان نمی‌تواند منفی باشد.</t>
+  </si>
+  <si>
+    <t>ShenasnameNumber</t>
+  </si>
+  <si>
+    <t>ShenasnameSerie</t>
+  </si>
+  <si>
+    <t>ShenasnameSerial</t>
+  </si>
+  <si>
+    <t>InsurranceCode</t>
+  </si>
+  <si>
+    <t>ExtraInsurranceCount</t>
+  </si>
+  <si>
+    <t>The number of additional insurances cannot be negative.</t>
+  </si>
+  <si>
+    <t>تعداد بیمه‌های اضافی نمی‌تواند منفی باشد.</t>
+  </si>
+  <si>
+    <t>SupervisorId</t>
+  </si>
+  <si>
+    <t>The supervisor ID must be a positive number.</t>
+  </si>
+  <si>
+    <t>کد سرپرست باید عدد مثبت باشد.</t>
+  </si>
+  <si>
+    <t>InternalContactNumber</t>
+  </si>
+  <si>
+    <t>LandPhoneNumber</t>
+  </si>
+  <si>
+    <t>PostalCode</t>
+  </si>
+  <si>
+    <t>MostRecentDegree</t>
+  </si>
+  <si>
+    <t>Major</t>
+  </si>
+  <si>
+    <t>The first name must not be more than 21 characters long.</t>
+  </si>
+  <si>
+    <t>نام نباید بیشتر از 21 کاراکتر باشد.</t>
+  </si>
+  <si>
+    <t>The last name must not be more than 21 characters long.</t>
+  </si>
+  <si>
+    <t>نام خانوادگی نباید بیشتر از 21 کاراکتر باشد.</t>
+  </si>
+  <si>
+    <t>The national ID must be exactly 10 digits.</t>
+  </si>
+  <si>
+    <t>کد ملی باید 10 رقمی باشد.</t>
+  </si>
+  <si>
+    <t>The contact number must be exactly 11 digits.</t>
+  </si>
+  <si>
+    <t>شماره تماس باید 11 رقمی باشد.</t>
+  </si>
+  <si>
+    <t>The father's name must not be more than 21 characters.</t>
+  </si>
+  <si>
+    <t>نام پدر نباید بیشتر از 21 کاراکتر باشد.</t>
+  </si>
+  <si>
+    <t>The birth certificate number must not be more than 10 digits.</t>
+  </si>
+  <si>
+    <t>شماره شناسنامه نباید بیشتر از 10 رقم باشد.</t>
+  </si>
+  <si>
+    <t>The birth certificate series must not be more than 6 digits.</t>
+  </si>
+  <si>
+    <t>سری شناسنامه نباید بیشتر از 6 رقم باشد.</t>
+  </si>
+  <si>
+    <t>The birth certificate serial must not be more than 2 digits.</t>
+  </si>
+  <si>
+    <t>سریال شناسنامه نباید بیشتر از 2 رقم باشد.</t>
+  </si>
+  <si>
+    <t>The insurance code must not be more than 8 digits.</t>
+  </si>
+  <si>
+    <t>کد بیمه نباید بیشتر از 8 رقم باشد.</t>
+  </si>
+  <si>
+    <t>The internal contact number must be 3 digits.</t>
+  </si>
+  <si>
+    <t>شماره تماس داخلی باید 3 رقم باشد.</t>
+  </si>
+  <si>
+    <t>The landline phone number must be 11 digits.</t>
+  </si>
+  <si>
+    <t>شماره تلفن ثابت باید 11 رقم باشد.</t>
+  </si>
+  <si>
+    <t>The postal code must be 10 digits.</t>
+  </si>
+  <si>
+    <t>کد پستی باید 10 رقم باشد.</t>
+  </si>
+  <si>
+    <t>The latest degree must not be more than 21 characters.</t>
+  </si>
+  <si>
+    <t>آخرین مدرک تحصیلی نباید بیشتر از 21 کاراکتر باشد.</t>
+  </si>
+  <si>
+    <t>The major must not be more than 21 characters.</t>
+  </si>
+  <si>
+    <t>رشته تحصیلی نباید بیشتر از 21 کاراکتر باشد.</t>
   </si>
 </sst>
 </file>
@@ -494,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC9A20EE-8593-443D-A7D5-78EB7A67A965}">
-  <dimension ref="B2:E11"/>
+  <dimension ref="B2:E19"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,142 +600,254 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1" t="s">
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="C17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
         <v>27</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
